--- a/Отчёт.xlsx
+++ b/Отчёт.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\ИС_project\ИС\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivand\RiderProjects\System.Monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FF5E89-C8DE-48F9-A179-8A4C88AF5868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,6 +420,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -494,6 +494,15 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$17:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$C$17:$C$23</c:f>
@@ -530,6 +539,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -639,6 +649,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -646,7 +657,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -721,6 +731,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -928,6 +939,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -935,7 +947,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1011,6 +1022,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1466,6 +1478,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1473,7 +1486,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1549,6 +1561,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1759,6 +1772,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1766,7 +1780,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1846,6 +1859,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2064,6 +2078,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2071,7 +2086,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2151,6 +2165,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2369,6 +2384,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2376,7 +2392,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2674,6 +2689,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2681,7 +2697,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7086,11 +7101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="82" workbookViewId="0">
-      <selection activeCell="AJ21" sqref="AJ21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="82" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
